--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\ALL\04 Jobs\12 Bolt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBBDE98-2289-4F8E-9101-0EDF5283E607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68A3CB-2D55-48E0-BF5A-D594121B053A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C62BE8-BDC0-4F50-898F-8229BBC54856}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>'Date',</t>
   </si>
@@ -72,21 +72,6 @@
     <t xml:space="preserve">   = </t>
   </si>
   <si>
-    <t>Shows aggregated driver activity in a city for a given period.</t>
-  </si>
-  <si>
-    <t>Details:</t>
-  </si>
-  <si>
-    <t>●     Hourly data for 5 full weeks from 2016-11-14 until 2016-12-18</t>
-  </si>
-  <si>
-    <t>●     Real data from a recent launch in a competitive city (2 big apps for years)</t>
-  </si>
-  <si>
-    <t>●     Fields:</t>
-  </si>
-  <si>
     <t>○     Date – date + hour for which the row of data is presented</t>
   </si>
   <si>
@@ -112,33 +97,6 @@
   </si>
   <si>
     <t>○     Finished Rides – number of finished trips during period</t>
-  </si>
-  <si>
-    <t>●     Note the data is sorted with more recent data first</t>
-  </si>
-  <si>
-    <t>●     Note that is time period has 0 values in all columns, it would be skipped (no row)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The supply is pretty straight foward is the 'Finished rides' column.
-&gt; $\text{Finished Rides} = \text{Online hrs} * \text{Rides per online hour}$
-Where:
-&gt; $\text{Online hrs} = \text{Waiting for Booking (hrs)} + \text{Has booking (h)}$
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are interested on the total usable supply, meaning the rides that can be used. 
-&gt; 1) $ \text{Supply_surplus}  =  \text{Total usable rides} + \text{Total already Used rides (a.k.a "Finished rides")} $
-Where: 
-&gt; 2) $ \text{Total usable rides} = \text{Available rides} - \text{Unavailable rides} $
-By **"usuable hrs"** we mean a car that is NOT: 
-    - Occupied (Busy), 
-    - In process (Already booked),
-    - Idle (waiting for booking) &lt;&lt; We consider this Available but not used. Meaning unmatched timing, Waiting for booking at the wrong time; Example: driver waits booking in the morning, the user search booking in the night.)
-Thus:
-&gt; 3) $\text{Available rides}   = \text{Active drivers} * \text{Hours per active driver}* \text{Rides per online hour}$
-&gt; 4) $\text{Unavailable rides} = (\text{Busy Hrs} + \text{ Already Booked hrs} + \text{waiting for booking Hrs})* \text{Rides per online hour} $
-</t>
   </si>
 </sst>
 </file>
@@ -537,11 +495,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C71FCAC-AA30-46ED-A026-D2E7757A17A7}">
-  <dimension ref="B11:N54"/>
+  <dimension ref="B3:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -557,206 +513,169 @@
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:11">
-      <c r="B11" s="1" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="4:13">
-      <c r="K21" s="1" t="s">
+    <row r="13" spans="2:13">
+      <c r="K13" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="K15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14">
+      <c r="K17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14">
+      <c r="K18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14">
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14">
+      <c r="K21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="M21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="4:13">
-      <c r="D22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14">
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="4:13">
-      <c r="K23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="4:13">
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="4:13">
-      <c r="K25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13">
-      <c r="K26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:13">
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="4:13">
-      <c r="K28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13">
-      <c r="K29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="4:13">
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="4:14" ht="409.5">
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="4:14">
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="4:14">
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="4:14">
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="4:14">
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" t="s">
-        <v>30</v>
-      </c>
+    <row r="30" spans="4:14">
+      <c r="J30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
